--- a/2020/primary/Kimble TX DEMOCRAT PRIMARY MAR 3, 2020.xlsx
+++ b/2020/primary/Kimble TX DEMOCRAT PRIMARY MAR 3, 2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Clerk\Documents\ELECTIONS\Excel Spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekwillis/code/openelections-sources-tx/2020/primary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC40A5E3-6736-43E1-8330-8663FA0C484F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C14981-9FC9-E146-AB40-4E5AA27A50C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28120" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -800,21 +800,21 @@
   </sheetPr>
   <dimension ref="A1:R202"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P128" sqref="P128"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="16" customWidth="1"/>
-    <col min="3" max="16" width="8.28515625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" style="6" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="28.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="16" customWidth="1"/>
+    <col min="3" max="16" width="8.33203125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="8.33203125" style="6" customWidth="1"/>
+    <col min="19" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -870,15 +870,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="6.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="6"/>
       <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>33</v>
       </c>
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>34</v>
       </c>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>35</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>36</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>27</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>37</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19" t="s">
         <v>26</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>38</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
         <v>39</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>40</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>41</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>42</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>43</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>44</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
         <v>45</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
         <v>46</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
         <v>47</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="4" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="4" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1857,7 +1857,7 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
     </row>
-    <row r="22" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="17" t="s">
         <v>48</v>
       </c>
@@ -1935,7 +1935,7 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
     </row>
-    <row r="24" spans="1:18" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
         <v>49</v>
       </c>
@@ -1985,15 +1985,15 @@
         <v>2</v>
       </c>
       <c r="Q24" s="6">
-        <f>SUM(B24,C24,E24,G24,I24,K24,M24,O24,)</f>
+        <f t="shared" ref="Q24:Q35" si="0">SUM(B24,C24,E24,G24,I24,K24,M24,O24,)</f>
         <v>13</v>
       </c>
       <c r="R24" s="6">
-        <f>SUM(D24,F24,H24,J24,L24,N24,P24,Q24)</f>
+        <f t="shared" ref="R24:R35" si="1">SUM(D24,F24,H24,J24,L24,N24,P24,Q24)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
         <v>50</v>
       </c>
@@ -2043,15 +2043,15 @@
         <v>0</v>
       </c>
       <c r="Q25" s="6">
-        <f>SUM(B25,C25,E25,G25,I25,K25,M25,O25,)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R25" s="6">
-        <f>SUM(D25,F25,H25,J25,L25,N25,P25,Q25)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
         <v>51</v>
       </c>
@@ -2101,15 +2101,15 @@
         <v>0</v>
       </c>
       <c r="Q26" s="6">
-        <f>SUM(B26,C26,E26,G26,I26,K26,M26,O26,)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R26" s="6">
-        <f>SUM(D26,F26,H26,J26,L26,N26,P26,Q26)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>52</v>
       </c>
@@ -2159,15 +2159,15 @@
         <v>0</v>
       </c>
       <c r="Q27" s="6">
-        <f>SUM(B27,C27,E27,G27,I27,K27,M27,O27,)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="R27" s="6">
-        <f>SUM(D27,F27,H27,J27,L27,N27,P27,Q27)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>53</v>
       </c>
@@ -2217,15 +2217,15 @@
         <v>0</v>
       </c>
       <c r="Q28" s="6">
-        <f>SUM(B28,C28,E28,G28,I28,K28,M28,O28,)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="R28" s="6">
-        <f>SUM(D28,F28,H28,J28,L28,N28,P28,Q28)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>54</v>
       </c>
@@ -2275,15 +2275,15 @@
         <v>1</v>
       </c>
       <c r="Q29" s="6">
-        <f>SUM(B29,C29,E29,G29,I29,K29,M29,O29,)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="R29" s="6">
-        <f>SUM(D29,F29,H29,J29,L29,N29,P29,Q29)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>55</v>
       </c>
@@ -2333,15 +2333,15 @@
         <v>0</v>
       </c>
       <c r="Q30" s="6">
-        <f>SUM(B30,C30,E30,G30,I30,K30,M30,O30,)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R30" s="6">
-        <f>SUM(D30,F30,H30,J30,L30,N30,P30,Q30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>56</v>
       </c>
@@ -2391,15 +2391,15 @@
         <v>0</v>
       </c>
       <c r="Q31" s="6">
-        <f>SUM(B31,C31,E31,G31,I31,K31,M31,O31,)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R31" s="6">
-        <f>SUM(D31,F31,H31,J31,L31,N31,P31,Q31)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>57</v>
       </c>
@@ -2449,15 +2449,15 @@
         <v>1</v>
       </c>
       <c r="Q32" s="6">
-        <f>SUM(B32,C32,E32,G32,I32,K32,M32,O32,)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="R32" s="6">
-        <f>SUM(D32,F32,H32,J32,L32,N32,P32,Q32)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>58</v>
       </c>
@@ -2507,15 +2507,15 @@
         <v>0</v>
       </c>
       <c r="Q33" s="6">
-        <f>SUM(B33,C33,E33,G33,I33,K33,M33,O33,)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R33" s="6">
-        <f>SUM(D33,F33,H33,J33,L33,N33,P33,Q33)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>59</v>
       </c>
@@ -2565,15 +2565,15 @@
         <v>0</v>
       </c>
       <c r="Q34" s="6">
-        <f>SUM(B34,C34,E34,G34,I34,K34,M34,O34,)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R34" s="6">
-        <f>SUM(D34,F34,H34,J34,L34,N34,P34,Q34)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>60</v>
       </c>
@@ -2623,23 +2623,23 @@
         <v>3</v>
       </c>
       <c r="Q35" s="6">
-        <f>SUM(B35,C35,E35,G35,I35,K35,M35,O35,)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="R35" s="6">
-        <f>SUM(D35,F35,H35,J35,L35,N35,P35,Q35)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
     </row>
-    <row r="37" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>62</v>
       </c>
@@ -2697,13 +2697,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
     </row>
-    <row r="40" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
     </row>
-    <row r="41" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>31</v>
       </c>
@@ -2759,13 +2759,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="8.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>63</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>64</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>65</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>66</v>
       </c>
@@ -2997,15 +2997,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
     </row>
-    <row r="49" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>68</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>69</v>
       </c>
@@ -3121,10 +3121,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
     </row>
-    <row r="53" spans="1:18" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
         <v>78</v>
       </c>
@@ -3146,7 +3146,7 @@
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
     </row>
-    <row r="54" spans="1:18" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
         <v>70</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
         <v>71</v>
       </c>
@@ -3262,19 +3262,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="10"/>
       <c r="B56" s="6"/>
       <c r="Q56" s="6"/>
     </row>
-    <row r="57" spans="1:18" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B57" s="2"/>
       <c r="Q57" s="6"/>
     </row>
-    <row r="58" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
         <v>73</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
         <v>75</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="9"/>
       <c r="B60" s="2"/>
       <c r="C60" s="6"/>
@@ -3410,7 +3410,7 @@
       <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
     </row>
-    <row r="61" spans="1:18" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="9"/>
       <c r="B61" s="2"/>
       <c r="C61" s="6"/>
@@ -3430,7 +3430,7 @@
       <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
     </row>
-    <row r="62" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>31</v>
       </c>
@@ -3486,13 +3486,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="9" t="s">
         <v>77</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
         <v>74</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="4" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" s="4" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="10"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -3628,14 +3628,14 @@
       <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
     </row>
-    <row r="67" spans="1:18" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="48.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B67" s="2"/>
       <c r="Q67" s="6"/>
     </row>
-    <row r="68" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="9" t="s">
         <v>80</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="11" t="s">
         <v>81</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="10" t="s">
         <v>82</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:18" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" s="4" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -3828,7 +3828,7 @@
       <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
     </row>
-    <row r="72" spans="1:18" s="4" customFormat="1" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" s="4" customFormat="1" ht="46.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
         <v>83</v>
       </c>
@@ -3850,7 +3850,7 @@
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
     </row>
-    <row r="73" spans="1:18" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="9" t="s">
         <v>84</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:18" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="10" t="s">
         <v>85</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" s="4" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="10"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -3986,14 +3986,14 @@
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
     </row>
-    <row r="76" spans="1:18" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="45.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B76" s="2"/>
       <c r="Q76" s="6"/>
     </row>
-    <row r="77" spans="1:18" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" ht="23.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="10" t="s">
         <v>87</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="4" customFormat="1" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" s="4" customFormat="1" ht="23.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -4070,7 +4070,7 @@
       <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
     </row>
-    <row r="79" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>31</v>
       </c>
@@ -4126,13 +4126,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="18" t="s">
         <v>88</v>
       </c>
       <c r="B80" s="21"/>
     </row>
-    <row r="81" spans="1:18" s="4" customFormat="1" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" s="4" customFormat="1" ht="23.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="9" t="s">
         <v>30</v>
       </c>
@@ -4190,20 +4190,20 @@
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="10"/>
       <c r="B82" s="6"/>
       <c r="Q82" s="6"/>
     </row>
-    <row r="83" spans="1:18" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:18" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" ht="8.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" spans="1:18" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B84" s="2"/>
       <c r="Q84" s="6"/>
     </row>
-    <row r="85" spans="1:18" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" ht="23.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="10" t="s">
         <v>89</v>
       </c>
@@ -4261,12 +4261,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" ht="8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="10"/>
       <c r="B86" s="6"/>
       <c r="Q86" s="6"/>
     </row>
-    <row r="87" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="5" t="s">
         <v>90</v>
       </c>
@@ -4288,7 +4288,7 @@
       <c r="Q87" s="3"/>
       <c r="R87" s="3"/>
     </row>
-    <row r="88" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="10" t="s">
         <v>91</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="89" spans="1:18" s="4" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" s="4" customFormat="1" ht="7.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="10"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -4366,7 +4366,7 @@
       <c r="Q89" s="6"/>
       <c r="R89" s="6"/>
     </row>
-    <row r="90" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="5" t="s">
         <v>22</v>
       </c>
@@ -4388,7 +4388,7 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
     </row>
-    <row r="91" spans="1:18" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="10" t="s">
         <v>19</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="9" t="s">
         <v>18</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="5" t="s">
         <v>23</v>
       </c>
@@ -4526,7 +4526,7 @@
       <c r="Q93" s="3"/>
       <c r="R93" s="3"/>
     </row>
-    <row r="94" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="10" t="s">
         <v>19</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="9" t="s">
         <v>18</v>
       </c>
@@ -4642,13 +4642,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="9"/>
       <c r="B96" s="2"/>
       <c r="Q96" s="6"/>
     </row>
-    <row r="97" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>31</v>
       </c>
@@ -4704,14 +4704,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B99" s="6"/>
       <c r="Q99" s="6"/>
     </row>
-    <row r="100" spans="1:18" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="10" t="s">
         <v>17</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:18" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="9" t="s">
         <v>18</v>
       </c>
@@ -4827,13 +4827,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B102" s="6"/>
     </row>
-    <row r="103" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="10" t="s">
         <v>19</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="104" spans="1:18" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="9" t="s">
         <v>18</v>
       </c>
@@ -4949,12 +4949,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="1:18" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="9" t="s">
         <v>19</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="9" t="s">
         <v>18</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:18" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="5" t="s">
         <v>29</v>
       </c>
@@ -5092,7 +5092,7 @@
       <c r="Q108" s="6"/>
       <c r="R108" s="6"/>
     </row>
-    <row r="109" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="10" t="s">
         <v>19</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="110" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="11" t="s">
         <v>18</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:18" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="17" t="s">
         <v>97</v>
       </c>
@@ -5230,7 +5230,7 @@
       <c r="Q111" s="6"/>
       <c r="R111" s="6"/>
     </row>
-    <row r="112" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="10" t="s">
         <v>19</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="113" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="9" t="s">
         <v>18</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="5" t="s">
         <v>92</v>
       </c>
@@ -5368,7 +5368,7 @@
       <c r="Q114" s="3"/>
       <c r="R114" s="3"/>
     </row>
-    <row r="115" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="9" t="s">
         <v>17</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="116" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="10" t="s">
         <v>93</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
         <v>31</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="5" t="s">
         <v>94</v>
       </c>
@@ -5562,7 +5562,7 @@
       <c r="Q118" s="3"/>
       <c r="R118" s="3"/>
     </row>
-    <row r="119" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="9" t="s">
         <v>17</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="120" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="9" t="s">
         <v>18</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>95</v>
       </c>
@@ -5700,7 +5700,7 @@
       <c r="Q121" s="6"/>
       <c r="R121" s="3"/>
     </row>
-    <row r="122" spans="1:18" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="9" t="s">
         <v>19</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="123" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="9" t="s">
         <v>18</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:18" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>96</v>
       </c>
@@ -5838,7 +5838,7 @@
       <c r="Q124" s="6"/>
       <c r="R124" s="6"/>
     </row>
-    <row r="125" spans="1:18" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="10" t="s">
         <v>19</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="126" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
         <v>18</v>
       </c>
@@ -5954,32 +5954,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="15"/>
       <c r="B127" s="20"/>
       <c r="Q127" s="6"/>
     </row>
-    <row r="128" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="15"/>
       <c r="B128" s="20"/>
       <c r="Q128" s="6"/>
     </row>
-    <row r="129" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="17"/>
       <c r="B129" s="6"/>
       <c r="Q129" s="6"/>
     </row>
-    <row r="130" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="10"/>
       <c r="B130" s="6"/>
       <c r="Q130" s="6"/>
     </row>
-    <row r="131" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="11"/>
       <c r="B131" s="3"/>
       <c r="Q131" s="6"/>
     </row>
-    <row r="132" spans="1:18" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="10"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
@@ -5999,7 +5999,7 @@
       <c r="Q132" s="6"/>
       <c r="R132" s="6"/>
     </row>
-    <row r="133" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="3"/>
@@ -6019,7 +6019,7 @@
       <c r="Q133" s="3"/>
       <c r="R133" s="3"/>
     </row>
-    <row r="134" spans="1:18" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" s="4" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="9"/>
       <c r="B134" s="2"/>
       <c r="C134" s="6"/>
@@ -6039,13 +6039,13 @@
       <c r="Q134" s="6"/>
       <c r="R134" s="6"/>
     </row>
-    <row r="135" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="1:18" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" spans="1:18" ht="30.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="10"/>
       <c r="B137" s="6"/>
       <c r="Q137" s="6"/>
     </row>
-    <row r="138" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="9"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -6064,7 +6064,7 @@
       <c r="P138" s="2"/>
       <c r="Q138" s="6"/>
     </row>
-    <row r="139" spans="1:18" ht="0.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" ht="0.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="3"/>
@@ -6084,19 +6084,19 @@
       <c r="Q139" s="3"/>
       <c r="R139" s="3"/>
     </row>
-    <row r="140" spans="1:18" ht="0.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" ht="0.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="7"/>
       <c r="B140" s="2"/>
     </row>
-    <row r="141" spans="1:18" ht="0.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" ht="0.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="7"/>
       <c r="B141" s="2"/>
     </row>
-    <row r="142" spans="1:18" ht="0.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" ht="0.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="7"/>
       <c r="B142" s="2"/>
     </row>
-    <row r="143" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="10"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
@@ -6116,7 +6116,7 @@
       <c r="Q143" s="6"/>
       <c r="R143" s="6"/>
     </row>
-    <row r="144" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="12"/>
       <c r="B144" s="20"/>
       <c r="C144" s="6"/>
@@ -6136,11 +6136,11 @@
       <c r="Q144" s="6"/>
       <c r="R144" s="6"/>
     </row>
-    <row r="145" spans="1:18" ht="0.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" ht="0.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="7"/>
       <c r="B145" s="2"/>
     </row>
-    <row r="146" spans="1:18" s="4" customFormat="1" ht="0.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" s="4" customFormat="1" ht="0.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="12"/>
       <c r="B146" s="20"/>
       <c r="C146" s="6"/>
@@ -6160,7 +6160,7 @@
       <c r="Q146" s="6"/>
       <c r="R146" s="6"/>
     </row>
-    <row r="147" spans="1:18" s="4" customFormat="1" ht="0.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" s="4" customFormat="1" ht="0.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="10"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
@@ -6180,12 +6180,12 @@
       <c r="Q147" s="6"/>
       <c r="R147" s="6"/>
     </row>
-    <row r="148" spans="1:18" ht="0.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" ht="0.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
       <c r="B148" s="6"/>
       <c r="Q148" s="6"/>
     </row>
-    <row r="149" spans="1:18" s="4" customFormat="1" ht="0.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" s="4" customFormat="1" ht="0.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="10"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
@@ -6205,12 +6205,12 @@
       <c r="Q149" s="6"/>
       <c r="R149" s="6"/>
     </row>
-    <row r="150" spans="1:18" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" ht="23.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="7"/>
       <c r="B150" s="2"/>
       <c r="N150" s="16"/>
     </row>
-    <row r="151" spans="1:18" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="10"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
@@ -6230,11 +6230,11 @@
       <c r="Q151" s="6"/>
       <c r="R151" s="6"/>
     </row>
-    <row r="152" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="14"/>
       <c r="Q152" s="6"/>
     </row>
-    <row r="153" spans="1:18" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="13"/>
       <c r="B153" s="21"/>
       <c r="C153" s="5"/>
@@ -6254,7 +6254,7 @@
       <c r="Q153" s="5"/>
       <c r="R153" s="2"/>
     </row>
-    <row r="154" spans="1:18" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="13"/>
       <c r="B154" s="21"/>
       <c r="C154" s="5"/>
@@ -6274,7 +6274,7 @@
       <c r="Q154" s="5"/>
       <c r="R154" s="2"/>
     </row>
-    <row r="155" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="3"/>
@@ -6294,7 +6294,7 @@
       <c r="Q155" s="3"/>
       <c r="R155" s="3"/>
     </row>
-    <row r="156" spans="1:18" s="8" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" s="8" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="13"/>
       <c r="B156" s="21"/>
       <c r="C156" s="5"/>
@@ -6314,7 +6314,7 @@
       <c r="Q156" s="5"/>
       <c r="R156" s="2"/>
     </row>
-    <row r="157" spans="1:18" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="5"/>
       <c r="B157" s="2"/>
       <c r="C157" s="6"/>
@@ -6334,71 +6334,71 @@
       <c r="Q157" s="6"/>
       <c r="R157" s="6"/>
     </row>
-    <row r="158" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="10"/>
       <c r="B158" s="6"/>
       <c r="Q158" s="6"/>
     </row>
-    <row r="159" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="5"/>
       <c r="B160" s="2"/>
     </row>
-    <row r="161" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="10"/>
       <c r="B161" s="6"/>
       <c r="Q161" s="6"/>
     </row>
-    <row r="162" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="5"/>
       <c r="B163" s="2"/>
     </row>
-    <row r="164" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="10"/>
       <c r="B164" s="6"/>
       <c r="Q164" s="6"/>
     </row>
-    <row r="165" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
       <c r="B166" s="6"/>
     </row>
-    <row r="167" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="10"/>
       <c r="B167" s="6"/>
       <c r="Q167" s="6"/>
     </row>
-    <row r="168" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="10"/>
       <c r="B168" s="6"/>
       <c r="Q168" s="6"/>
     </row>
-    <row r="169" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="10"/>
       <c r="B169" s="6"/>
       <c r="Q169" s="6"/>
     </row>
-    <row r="170" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="10"/>
       <c r="B170" s="6"/>
       <c r="Q170" s="6"/>
     </row>
-    <row r="171" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="10"/>
       <c r="B171" s="6"/>
       <c r="Q171" s="6"/>
     </row>
-    <row r="172" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="14"/>
       <c r="Q173" s="6"/>
     </row>
-    <row r="174" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="14"/>
       <c r="Q174" s="6"/>
     </row>
-    <row r="175" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="3"/>
@@ -6418,82 +6418,82 @@
       <c r="Q175" s="3"/>
       <c r="R175" s="3"/>
     </row>
-    <row r="176" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="15"/>
       <c r="B177" s="20"/>
     </row>
-    <row r="178" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="12"/>
       <c r="B178" s="20"/>
       <c r="Q178" s="6"/>
     </row>
-    <row r="179" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="12"/>
       <c r="B179" s="20"/>
       <c r="Q179" s="6"/>
     </row>
-    <row r="180" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
       <c r="B181" s="6"/>
     </row>
-    <row r="182" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="10"/>
       <c r="B182" s="6"/>
       <c r="Q182" s="6"/>
     </row>
-    <row r="183" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="10"/>
       <c r="B183" s="6"/>
       <c r="Q183" s="6"/>
     </row>
-    <row r="184" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
       <c r="B185" s="6"/>
       <c r="Q185" s="6"/>
     </row>
-    <row r="186" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="10"/>
       <c r="B186" s="6"/>
       <c r="Q186" s="6"/>
     </row>
-    <row r="187" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="10"/>
       <c r="B187" s="6"/>
       <c r="Q187" s="6"/>
     </row>
-    <row r="188" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="10"/>
       <c r="B188" s="6"/>
     </row>
-    <row r="189" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="15"/>
       <c r="B189" s="20"/>
     </row>
-    <row r="190" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="14"/>
       <c r="Q190" s="6"/>
     </row>
-    <row r="191" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="14"/>
       <c r="Q191" s="6"/>
     </row>
-    <row r="192" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
       <c r="B193" s="6"/>
     </row>
-    <row r="194" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="14"/>
       <c r="Q194" s="6"/>
     </row>
-    <row r="195" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="14"/>
       <c r="Q195" s="6"/>
     </row>
-    <row r="202" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q202" s="6"/>
     </row>
   </sheetData>
@@ -6513,7 +6513,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6527,7 +6527,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
